--- a/MOG_SupportingData/SupplementaryFile8 pivotMOGcomp(T34-36).xlsx
+++ b/MOG_SupportingData/SupplementaryFile8 pivotMOGcomp(T34-36).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOGdata\mog_testdata\cancer\raw\normalized\alldata_reduced\TCGA_GTEX_MOG\res\SuppFiles\MOGSupp_NAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E344F6-1D1E-4E2A-ADE0-BB995AEA7DFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0EA7B7-9868-4527-ACF6-50BDDA207F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="735" windowWidth="21600" windowHeight="12735" xr2:uid="{0E377487-E138-466A-B765-A9E1AD461710}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0E377487-E138-466A-B765-A9E1AD461710}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="98">
   <si>
     <t>(PDH-CSV 4.0) (Central Daylight Time)(300)</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Interactivity</t>
   </si>
   <si>
-    <t>+++</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -287,12 +284,6 @@
     <t>Interactive tables and trees</t>
   </si>
   <si>
-    <t>Drag and Drop operations</t>
-  </si>
-  <si>
-    <t>Interactive visulazations</t>
-  </si>
-  <si>
     <t>Partial</t>
   </si>
   <si>
@@ -333,9 +324,6 @@
   </si>
   <si>
     <t>Meta-analysis of correlation</t>
-  </si>
-  <si>
-    <t>Differntial expression analysis</t>
   </si>
   <si>
     <t>Mann-Whitney test</t>
@@ -385,12 +373,65 @@
   <si>
     <t>Supplementary File 8</t>
   </si>
+  <si>
+    <t>iSEE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rue-Albrecht, Kevin, Federico Marini, Charlotte Soneson, and Aaron TL Lun. "iSEE: interactive summarizedexperiment explorer." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1000Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7 (2018).</t>
+    </r>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>Any omics (as SummarizedExperiment object)</t>
+  </si>
+  <si>
+    <t>tSNE</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>Differential expression analysis</t>
+  </si>
+  <si>
+    <t>Interactive visualizations</t>
+  </si>
+  <si>
+    <t>Interactive drag and Drop operations</t>
+  </si>
+  <si>
+    <t>Yes (save R code for  plots)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,13 +484,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -465,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -485,8 +547,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8442CA1A-E619-4BE5-9BAF-8C14D4A4E42A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -815,10 +889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -833,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +920,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -863,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FB0961-E324-480E-974A-EABD51CC2218}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,13 +949,14 @@
     <col min="2" max="2" width="12.5703125" style="4"/>
     <col min="3" max="3" width="44.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="43.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="4"/>
+    <col min="5" max="5" width="48.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
@@ -889,16 +964,19 @@
         <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -908,17 +986,20 @@
       <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -929,7 +1010,7 @@
         <v>2018</v>
       </c>
       <c r="E3" s="4">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F3" s="4">
         <v>2019</v>
@@ -937,8 +1018,11 @@
       <c r="G3" s="4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -957,8 +1041,11 @@
       <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -975,648 +1062,741 @@
         <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="H21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>42</v>
+      <c r="C24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="F28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="G31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="E32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>42</v>
+      <c r="C33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="C41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>42</v>
+      <c r="D44" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>42</v>
@@ -1628,31 +1808,61 @@
         <v>42</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="4" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
